--- a/tools-core-basic/model/业务字典.xlsx
+++ b/tools-core-basic/model/业务字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21615" windowHeight="7830" tabRatio="500" firstSheet="24" activeTab="25"/>
+    <workbookView windowWidth="21615" windowHeight="4545" tabRatio="500" firstSheet="24" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
@@ -2072,9 +2072,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2087,9 +2094,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2097,36 +2103,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2140,17 +2116,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2171,9 +2147,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2185,19 +2161,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2208,8 +2176,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2248,7 +2248,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2260,73 +2320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2344,7 +2338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2356,13 +2350,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2374,13 +2374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2392,13 +2398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2410,25 +2422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2486,36 +2486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2542,17 +2512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2575,6 +2545,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2583,149 +2568,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11033,8 +11033,8 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>

--- a/tools-core-basic/model/业务字典.xlsx
+++ b/tools-core-basic/model/业务字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21615" windowHeight="4545" tabRatio="500" firstSheet="24" activeTab="25"/>
+    <workbookView windowWidth="22065" windowHeight="8670" tabRatio="500" firstSheet="27" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
@@ -2027,6 +2027,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF313131"/>
       <name val="STHeiti"/>
@@ -2051,14 +2059,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -2070,28 +2070,6 @@
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2109,14 +2087,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2131,15 +2178,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2147,23 +2187,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2178,7 +2202,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2186,30 +2210,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2248,37 +2248,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2290,103 +2284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2404,13 +2302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2422,13 +2314,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2486,13 +2486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2512,21 +2516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2538,9 +2527,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2563,8 +2563,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2589,10 +2589,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2601,131 +2601,131 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2745,8 +2745,11 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2781,19 +2784,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2806,11 +2806,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6733,8 +6733,8 @@
   <sheetPr/>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -6815,7 +6815,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -6835,7 +6835,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="35" t="s">
@@ -6855,7 +6855,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="35" t="s">
@@ -6875,7 +6875,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="35" t="s">
@@ -6895,7 +6895,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6915,7 +6915,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="35" t="s">
@@ -6935,7 +6935,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="35" t="s">
@@ -6955,7 +6955,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="35" t="s">
@@ -6972,7 +6972,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="35" t="s">
@@ -6992,7 +6992,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="35" t="s">
@@ -7012,7 +7012,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="36" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="35" t="s">
@@ -7032,7 +7032,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="36" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="35" t="s">
@@ -7052,7 +7052,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="35" t="s">
@@ -7072,7 +7072,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="36" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="35" t="s">
@@ -7092,7 +7092,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -7112,7 +7112,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="36" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="35" t="s">
@@ -7132,7 +7132,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="35" t="s">
@@ -7152,7 +7152,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B21" s="35" t="s">
@@ -7172,7 +7172,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="36" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="35" t="s">
@@ -7192,7 +7192,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="36" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="35" t="s">
@@ -7209,7 +7209,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B24" s="35" t="s">
@@ -7229,7 +7229,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="36" t="s">
         <v>82</v>
       </c>
       <c r="B25" s="35" t="s">
@@ -7249,7 +7249,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="35" t="s">
@@ -7266,7 +7266,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="36" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="35" t="s">
@@ -7286,7 +7286,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="36" t="s">
         <v>90</v>
       </c>
       <c r="B28" s="35" t="s">
@@ -7303,7 +7303,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="36" t="s">
         <v>92</v>
       </c>
       <c r="B29" s="35" t="s">
@@ -7320,7 +7320,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="34" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="35" t="s">
@@ -7340,7 +7340,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="36" t="s">
         <v>97</v>
       </c>
       <c r="B31" s="35" t="s">
@@ -7357,7 +7357,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="36" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="35" t="s">
@@ -7377,7 +7377,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="36" t="s">
         <v>102</v>
       </c>
       <c r="B33" s="35" t="s">
@@ -7397,7 +7397,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="36" t="s">
         <v>105</v>
       </c>
       <c r="B34" s="35" t="s">
@@ -7417,7 +7417,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="36" t="s">
         <v>108</v>
       </c>
       <c r="B35" s="35" t="s">
@@ -7437,7 +7437,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="36" t="s">
         <v>111</v>
       </c>
       <c r="B36" s="35" t="s">
@@ -7457,7 +7457,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="36" t="s">
         <v>113</v>
       </c>
       <c r="B37" s="35" t="s">
@@ -7477,7 +7477,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="36" t="s">
         <v>115</v>
       </c>
       <c r="B38" s="35" t="s">
@@ -7497,7 +7497,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="36" t="s">
         <v>118</v>
       </c>
       <c r="B39" s="35" t="s">
@@ -7517,7 +7517,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="36" t="s">
         <v>121</v>
       </c>
       <c r="B40" s="35" t="s">
@@ -7537,7 +7537,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>124</v>
       </c>
       <c r="B41" s="35" t="s">
@@ -7557,7 +7557,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="36" t="s">
         <v>128</v>
       </c>
       <c r="B42" s="35" t="s">
@@ -7577,7 +7577,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="36" t="s">
         <v>131</v>
       </c>
       <c r="B43" s="35" t="s">
@@ -7617,7 +7617,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="36" t="s">
         <v>137</v>
       </c>
       <c r="B45" s="35" t="s">
@@ -7637,7 +7637,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="36" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="35" t="s">
@@ -7677,7 +7677,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="34" t="s">
         <v>146</v>
       </c>
       <c r="B48" s="35" t="s">
@@ -7694,7 +7694,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="36" t="s">
         <v>148</v>
       </c>
       <c r="B49" s="35" t="s">
@@ -7714,7 +7714,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="36" t="s">
         <v>151</v>
       </c>
       <c r="B50" s="35" t="s">
@@ -7734,7 +7734,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="36" t="s">
         <v>154</v>
       </c>
       <c r="B51" s="35" t="s">
@@ -7751,7 +7751,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="36" t="s">
         <v>156</v>
       </c>
       <c r="B52" s="35" t="s">
@@ -7771,7 +7771,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="36" t="s">
         <v>159</v>
       </c>
       <c r="B53" s="35" t="s">
@@ -7791,7 +7791,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="36" t="s">
         <v>162</v>
       </c>
       <c r="B54" s="35" t="s">
@@ -7949,14 +7949,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -7973,113 +7973,113 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8116,14 +8116,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -8140,113 +8140,113 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8284,14 +8284,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>266</v>
       </c>
     </row>
@@ -8316,10 +8316,10 @@
       <c r="B4" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="29" t="s">
@@ -8328,91 +8328,91 @@
       <c r="B5" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8449,14 +8449,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>266</v>
       </c>
     </row>
@@ -8481,10 +8481,10 @@
       <c r="B4" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="29" t="s">
@@ -8493,10 +8493,10 @@
       <c r="B5" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="29" t="s">
@@ -8505,10 +8505,10 @@
       <c r="B6" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29" t="s">
@@ -8517,10 +8517,10 @@
       <c r="B7" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="29" t="s">
@@ -8529,73 +8529,73 @@
       <c r="B8" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8632,14 +8632,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>279</v>
       </c>
     </row>
@@ -8658,113 +8658,113 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8802,14 +8802,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>281</v>
       </c>
     </row>
@@ -8828,121 +8828,121 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8979,14 +8979,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>291</v>
       </c>
     </row>
@@ -9005,193 +9005,193 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>305</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="28" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9223,19 +9223,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>324</v>
       </c>
     </row>
@@ -9260,10 +9260,10 @@
       <c r="B4" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>327</v>
       </c>
     </row>
@@ -9274,10 +9274,10 @@
       <c r="B5" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>330</v>
       </c>
     </row>
@@ -9288,24 +9288,24 @@
       <c r="B6" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
@@ -9317,7 +9317,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
@@ -9395,14 +9395,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -9425,10 +9425,10 @@
       <c r="B4" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
@@ -9437,10 +9437,10 @@
       <c r="B5" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
@@ -9449,22 +9449,22 @@
       <c r="B6" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
@@ -9476,7 +9476,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
@@ -9553,14 +9553,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>337</v>
       </c>
     </row>
@@ -9585,10 +9585,10 @@
       <c r="B4" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
@@ -9597,10 +9597,10 @@
       <c r="B5" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
@@ -9609,10 +9609,10 @@
       <c r="B6" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
@@ -9621,10 +9621,10 @@
       <c r="B7" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
@@ -9633,10 +9633,10 @@
       <c r="B8" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
@@ -9648,7 +9648,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
@@ -9725,25 +9725,25 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" ht="31.5" spans="1:4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -9757,103 +9757,103 @@
       <c r="B4" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9890,14 +9890,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>348</v>
       </c>
     </row>
@@ -9922,10 +9922,10 @@
       <c r="B4" s="5">
         <v>100036</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9936,10 +9936,10 @@
       <c r="B5" s="5">
         <v>100040</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>351</v>
       </c>
     </row>
@@ -9950,10 +9950,10 @@
       <c r="B6" s="5">
         <v>100041</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>352</v>
       </c>
     </row>
@@ -9964,10 +9964,10 @@
       <c r="B7" s="5">
         <v>100043</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>353</v>
       </c>
     </row>
@@ -9978,10 +9978,10 @@
       <c r="B8" s="5">
         <v>100049</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>354</v>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
@@ -10072,14 +10072,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>348</v>
       </c>
     </row>
@@ -10149,7 +10149,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
@@ -10256,14 +10256,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>360</v>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
@@ -10458,13 +10458,13 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -10560,7 +10560,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
@@ -10667,14 +10667,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="27" t="s">
         <v>391</v>
       </c>
     </row>
@@ -10756,7 +10756,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
@@ -10864,13 +10864,13 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -10944,7 +10944,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
@@ -11033,8 +11033,8 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -11046,18 +11046,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -11161,7 +11161,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
@@ -11171,7 +11171,7 @@
     <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="25"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5"/>
@@ -11264,18 +11264,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -11375,7 +11375,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
@@ -11482,13 +11482,13 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -11564,7 +11564,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -11671,13 +11671,13 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -11744,7 +11744,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -11851,14 +11851,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -11881,10 +11881,10 @@
       <c r="B4" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>178</v>
       </c>
     </row>
@@ -11895,107 +11895,107 @@
       <c r="B5" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12014,8 +12014,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -12032,13 +12032,13 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -12079,7 +12079,7 @@
       <c r="C6" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
@@ -12087,7 +12087,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -12194,13 +12194,13 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -12241,7 +12241,7 @@
       <c r="C6" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
@@ -12249,7 +12249,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -12356,13 +12356,13 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -12374,7 +12374,7 @@
       <c r="C3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>472</v>
       </c>
       <c r="B7" s="5">
@@ -12438,7 +12438,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -12545,13 +12545,13 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -12592,15 +12592,15 @@
       <c r="C6" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -12707,13 +12707,13 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -12754,15 +12754,15 @@
       <c r="C6" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -12869,13 +12869,13 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -12922,10 +12922,10 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>236</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -12936,7 +12936,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -13043,14 +13043,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -13101,9 +13101,9 @@
       <c r="D6" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:5">
@@ -13111,7 +13111,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
@@ -13232,14 +13232,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -13290,9 +13290,9 @@
       <c r="D6" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:5">
@@ -13300,7 +13300,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
@@ -13421,13 +13421,13 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -13474,8 +13474,8 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5" t="s">
         <v>501</v>
       </c>
@@ -13484,7 +13484,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -13591,13 +13591,13 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -13628,7 +13628,7 @@
       <c r="B5" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>505</v>
       </c>
     </row>
@@ -13644,10 +13644,10 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>508</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -13658,7 +13658,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -13765,14 +13765,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>186</v>
       </c>
     </row>
@@ -13797,10 +13797,10 @@
       <c r="B4" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="29" t="s">
@@ -13809,22 +13809,22 @@
       <c r="B5" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29" t="s">
@@ -13833,85 +13833,85 @@
       <c r="B7" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13943,18 +13943,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -14001,10 +14001,10 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>516</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -14021,7 +14021,7 @@
       <c r="C8" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -14128,7 +14128,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -14185,7 +14185,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -14292,7 +14292,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -14353,7 +14353,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
@@ -14460,7 +14460,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -14533,7 +14533,7 @@
       <c r="C8" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
@@ -14670,7 +14670,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -14721,7 +14721,7 @@
       <c r="C6" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>560</v>
       </c>
     </row>
@@ -14758,7 +14758,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="20"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5"/>
@@ -14866,14 +14866,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>564</v>
       </c>
     </row>
@@ -14887,7 +14887,7 @@
       <c r="C3" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -15079,12 +15079,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -15093,13 +15093,13 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="31.5" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>576</v>
       </c>
     </row>
@@ -15146,10 +15146,10 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
@@ -15260,7 +15260,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -15372,7 +15372,7 @@
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5"/>
@@ -15458,7 +15458,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>165</v>
       </c>
     </row>
@@ -15470,7 +15470,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>587</v>
       </c>
     </row>
@@ -15489,49 +15489,49 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="10"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15739,14 +15739,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -15769,10 +15769,10 @@
       <c r="B4" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>198</v>
       </c>
     </row>
@@ -15783,24 +15783,24 @@
       <c r="B5" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>206</v>
       </c>
     </row>
@@ -15811,87 +15811,87 @@
       <c r="B7" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16833,14 +16833,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -16863,24 +16863,24 @@
       <c r="B4" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16891,87 +16891,87 @@
       <c r="B6" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17008,14 +17008,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>220</v>
       </c>
     </row>
@@ -17040,22 +17040,22 @@
       <c r="B4" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="29" t="s">
@@ -17064,85 +17064,85 @@
       <c r="B6" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17179,14 +17179,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
@@ -17209,24 +17209,24 @@
       <c r="B4" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>232</v>
       </c>
     </row>
@@ -17237,10 +17237,10 @@
       <c r="B6" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>235</v>
       </c>
     </row>
@@ -17251,10 +17251,10 @@
       <c r="B7" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>238</v>
       </c>
     </row>
@@ -17265,83 +17265,83 @@
       <c r="B8" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17378,14 +17378,14 @@
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>245</v>
       </c>
     </row>
@@ -17404,28 +17404,28 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="29" t="s">
@@ -17434,85 +17434,85 @@
       <c r="B6" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tools-core-basic/model/业务字典.xlsx
+++ b/tools-core-basic/model/业务字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22065" windowHeight="8670" tabRatio="500" firstSheet="27" activeTab="29"/>
+    <workbookView windowWidth="22065" windowHeight="7650" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
@@ -2075,26 +2075,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2108,62 +2094,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2179,6 +2118,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -2186,15 +2148,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2208,8 +2178,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2248,7 +2248,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2260,13 +2272,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2284,43 +2404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2332,103 +2428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,21 +2487,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2525,26 +2510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2563,8 +2528,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2583,149 +2574,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6733,8 +6733,8 @@
   <sheetPr/>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -7172,7 +7172,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="35" t="s">
@@ -7192,7 +7192,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="35" t="s">
@@ -10067,7 +10067,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>165</v>
       </c>
     </row>
@@ -10662,7 +10662,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>165</v>
       </c>
     </row>
@@ -12014,8 +12014,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -12027,7 +12027,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>165</v>
       </c>
     </row>

--- a/tools-core-basic/model/业务字典.xlsx
+++ b/tools-core-basic/model/业务字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22065" windowHeight="7650" tabRatio="500"/>
+    <workbookView windowWidth="22065" windowHeight="5790" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
@@ -2073,22 +2073,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2102,6 +2087,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -2109,16 +2131,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2132,8 +2146,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2148,37 +2170,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -2186,10 +2177,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2201,8 +2193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2210,6 +2203,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2248,7 +2248,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2260,109 +2398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2380,55 +2422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2501,11 +2501,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2528,56 +2578,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2586,146 +2586,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6734,7 +6734,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>

--- a/tools-core-basic/model/业务字典.xlsx
+++ b/tools-core-basic/model/业务字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22065" windowHeight="5790" tabRatio="500"/>
+    <workbookView windowWidth="22065" windowHeight="7065" tabRatio="500" firstSheet="24" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="业务字典" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628">
   <si>
     <t>业务字典
 dict_key</t>
@@ -1365,6 +1365,9 @@
   </si>
   <si>
     <t>新建操作员，还为启用</t>
+  </si>
+  <si>
+    <t>go</t>
   </si>
   <si>
     <t>password</t>
@@ -2007,8 +2010,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2073,13 +2076,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -2117,7 +2113,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2130,9 +2126,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2146,24 +2157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2185,7 +2180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -2202,14 +2196,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2248,19 +2251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2278,13 +2275,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2296,49 +2353,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2350,49 +2407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2404,19 +2419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2428,7 +2431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,21 +2490,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2516,17 +2504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2560,6 +2548,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2575,157 +2572,163 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6733,8 +6736,8 @@
   <sheetPr/>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -11251,8 +11254,8 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -11273,7 +11276,7 @@
         <v>144</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>143</v>
+        <v>417</v>
       </c>
       <c r="C2" s="17"/>
     </row>
@@ -11293,82 +11296,82 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11506,58 +11509,58 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>208</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>217</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>188</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11695,24 +11698,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>371</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11723,21 +11726,21 @@
         <v>379</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>383</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12048,29 +12051,29 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>371</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12195,7 +12198,7 @@
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>131</v>
@@ -12210,29 +12213,29 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12380,7 +12383,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>371</v>
@@ -12389,49 +12392,49 @@
         <v>224</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>379</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:4">
       <c r="A7" s="24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12561,29 +12564,29 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12723,29 +12726,29 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12885,7 +12888,7 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13068,30 +13071,30 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13257,30 +13260,30 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13437,47 +13440,47 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -13607,51 +13610,51 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
       <c r="A7" s="24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -13964,62 +13967,62 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
       <c r="A7" s="24" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D8" s="21"/>
     </row>
@@ -14144,36 +14147,36 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>267</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>269</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14308,40 +14311,40 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14476,118 +14479,118 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>267</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>269</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>273</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>275</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>363</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>369</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -14686,54 +14689,54 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -14746,7 +14749,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14874,7 +14877,7 @@
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="18" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -14885,7 +14888,7 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>170</v>
@@ -14893,86 +14896,86 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -15094,13 +15097,13 @@
     </row>
     <row r="3" ht="31.5" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -15111,7 +15114,7 @@
         <v>267</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -15122,7 +15125,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -15276,62 +15279,62 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>371</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>379</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>383</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -15471,7 +15474,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -15490,44 +15493,44 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="4:4">
@@ -15583,18 +15586,18 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -15605,18 +15608,18 @@
         <v>405</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -15943,18 +15946,18 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -15965,18 +15968,18 @@
         <v>282</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16102,7 +16105,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -16114,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16125,7 +16128,7 @@
         <v>267</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16136,7 +16139,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16147,7 +16150,7 @@
         <v>273</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16158,7 +16161,7 @@
         <v>275</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16291,7 +16294,7 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16302,7 +16305,7 @@
         <v>267</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16313,7 +16316,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16324,7 +16327,7 @@
         <v>273</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16335,7 +16338,7 @@
         <v>275</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16346,18 +16349,18 @@
         <v>277</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16485,23 +16488,23 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>371</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>375</v>
@@ -16512,24 +16515,24 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>379</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16672,29 +16675,29 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:3">
